--- a/backend/user_auth/management/commands/exercises.xlsx
+++ b/backend/user_auth/management/commands/exercises.xlsx
@@ -904,14 +904,17 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I70" activeCellId="0" sqref="I70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="158.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="123.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
